--- a/biology/Médecine/Ng'endo_Mwangi/Ng'endo_Mwangi.xlsx
+++ b/biology/Médecine/Ng'endo_Mwangi/Ng'endo_Mwangi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ng%27endo_Mwangi</t>
+          <t>Ng'endo_Mwangi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ng'endo Mwangi est une médecin kényane. Elle a étudié aux États-Unis, et elle est devenue la première femme médecin du Kenya, installant des cliniques au service d'une très grande population rurale[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ng'endo Mwangi est une médecin kényane. Elle a étudié aux États-Unis, et elle est devenue la première femme médecin du Kenya, installant des cliniques au service d'une très grande population rurale,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ng%27endo_Mwangi</t>
+          <t>Ng'endo_Mwangi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Kinoo, à Kiambu, de Rahab Wambui Mwangi et Mwangi Muchiri, elle étudie au lycée de Loreto (en) à Limuru[3]. Mwangi a pu partir étudier aux États-Unis grâce aux acheminements aériens du programme The Kennedy Airlifts (en) et elle est devenue la première femme noire africaine à étudier au Smith College, au Massachusetts[4],[1]. Elle est diplômée du Smith College en 1961, après quoi elle est devenue le premier étudiant africain à l'Albert Einstein College of Medicine à New York City[4],[2]. 
-De retour au Kenya comme médecin qualifiée, elle a ouvert son premier cabinet, la Clinique de l'Athi River, dans une région aride et rurale au sud-est de Nairobi, où elle est le seul médecin pour plus de 300 000 Maasaï. En 1987, elle fonde le Centre Médical Reto à Sultan Hamud (en)[4],[5].
-Les membres de l'Alliance des étudiants noirs au Smith College militent pour d'autres installations sur le campus et, en 1973, le Centre Culturel Mwangi[6] a été créé et nommé en son honneur. À cette époque, le Centre était situé à Lilly Salle, mais plus tard il a été déplacé au Davis Center au Smith College[2],[7],[8].
-Mwangi a officiellement changé son nom en Florence Gladwell en 1967[9]. Elle a obtenu un diplôme honoraire du Smith College, en 1987[4]. Elle est morte du cancer du sein en 1989[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Kinoo, à Kiambu, de Rahab Wambui Mwangi et Mwangi Muchiri, elle étudie au lycée de Loreto (en) à Limuru. Mwangi a pu partir étudier aux États-Unis grâce aux acheminements aériens du programme The Kennedy Airlifts (en) et elle est devenue la première femme noire africaine à étudier au Smith College, au Massachusetts,. Elle est diplômée du Smith College en 1961, après quoi elle est devenue le premier étudiant africain à l'Albert Einstein College of Medicine à New York City,. 
+De retour au Kenya comme médecin qualifiée, elle a ouvert son premier cabinet, la Clinique de l'Athi River, dans une région aride et rurale au sud-est de Nairobi, où elle est le seul médecin pour plus de 300 000 Maasaï. En 1987, elle fonde le Centre Médical Reto à Sultan Hamud (en),.
+Les membres de l'Alliance des étudiants noirs au Smith College militent pour d'autres installations sur le campus et, en 1973, le Centre Culturel Mwangi a été créé et nommé en son honneur. À cette époque, le Centre était situé à Lilly Salle, mais plus tard il a été déplacé au Davis Center au Smith College.
+Mwangi a officiellement changé son nom en Florence Gladwell en 1967. Elle a obtenu un diplôme honoraire du Smith College, en 1987. Elle est morte du cancer du sein en 1989.
 </t>
         </is>
       </c>
